--- a/assets/cutoff_files/test.xlsx
+++ b/assets/cutoff_files/test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\flutter_project\collegemitra\collegemitra\assets\cutoff_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D53652B-583C-4B66-89FC-685D9FB8D941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{178810C6-07D4-4E32-B908-8A761C8F4E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AA7BDA47-A03E-4B2F-9AC2-A8CCA305F52E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9894" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9894" uniqueCount="164">
   <si>
     <t>Institute</t>
   </si>
@@ -524,6 +524,9 @@
   <si>
     <t>Female-only</t>
   </si>
+  <si>
+    <t>NIT</t>
+  </si>
 </sst>
 </file>
 
@@ -877,10 +880,13 @@
   <dimension ref="A1:J1225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H15" sqref="H15:H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="66.21875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1353,7 +1359,7 @@
         <v>2562</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>163</v>
       </c>
       <c r="I15" t="s">
         <v>15</v>
@@ -1385,7 +1391,7 @@
         <v>4094</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>163</v>
       </c>
       <c r="I16" t="s">
         <v>15</v>
@@ -1417,7 +1423,7 @@
         <v>5952</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>163</v>
       </c>
       <c r="I17" t="s">
         <v>15</v>
@@ -1449,7 +1455,7 @@
         <v>2142</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>163</v>
       </c>
       <c r="I18" t="s">
         <v>15</v>
@@ -1481,7 +1487,7 @@
         <v>4616</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>163</v>
       </c>
       <c r="I19" t="s">
         <v>15</v>
@@ -1513,7 +1519,7 @@
         <v>1025</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>163</v>
       </c>
       <c r="I20" t="s">
         <v>15</v>
@@ -1545,7 +1551,7 @@
         <v>15374</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>163</v>
       </c>
       <c r="I21" t="s">
         <v>15</v>
@@ -1577,7 +1583,7 @@
         <v>21572</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>163</v>
       </c>
       <c r="I22" t="s">
         <v>15</v>
@@ -1609,7 +1615,7 @@
         <v>2438</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>163</v>
       </c>
       <c r="I23" t="s">
         <v>15</v>
@@ -1641,7 +1647,7 @@
         <v>4301</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>163</v>
       </c>
       <c r="I24" t="s">
         <v>15</v>
@@ -1673,7 +1679,7 @@
         <v>5663</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>163</v>
       </c>
       <c r="I25" t="s">
         <v>15</v>
@@ -1705,7 +1711,7 @@
         <v>8395</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>163</v>
       </c>
       <c r="I26" t="s">
         <v>15</v>
